--- a/filedatabase/sinhvien.xlsx
+++ b/filedatabase/sinhvien.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>username</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>password</t>
   </si>
@@ -27,9 +24,6 @@
     <t>tenSinhVien</t>
   </si>
   <si>
-    <t>IdLopMonHoc</t>
-  </si>
-  <si>
     <t>duc khanh</t>
   </si>
   <si>
@@ -48,16 +42,13 @@
     <t>INT1478</t>
   </si>
   <si>
-    <t>tenLopChinh</t>
-  </si>
-  <si>
-    <t>K59CLC</t>
-  </si>
-  <si>
-    <t>K60CA</t>
-  </si>
-  <si>
-    <t>k61CB</t>
+    <t>_id</t>
+  </si>
+  <si>
+    <t>idLopChinh</t>
+  </si>
+  <si>
+    <t>idLopMonHoc</t>
   </si>
 </sst>
 </file>
@@ -399,7 +390,7 @@
   <dimension ref="C4:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,23 +400,24 @@
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" customWidth="1"/>
     <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
       <c r="F4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
@@ -436,13 +428,13 @@
         <v>14020234</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
@@ -453,13 +445,13 @@
         <v>12345678</v>
       </c>
       <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
         <v>6</v>
       </c>
-      <c r="F6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
+      <c r="G6">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
@@ -470,13 +462,13 @@
         <v>11111111</v>
       </c>
       <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
         <v>7</v>
       </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
+      <c r="G7">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/filedatabase/sinhvien.xlsx
+++ b/filedatabase/sinhvien.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>password</t>
   </si>
@@ -49,6 +49,18 @@
   </si>
   <si>
     <t>idLopMonHoc</t>
+  </si>
+  <si>
+    <t>tokenFirebase</t>
+  </si>
+  <si>
+    <t>fsfsadfasdf</t>
+  </si>
+  <si>
+    <t>werwesdf</t>
+  </si>
+  <si>
+    <t>vsdfsdf</t>
   </si>
 </sst>
 </file>
@@ -387,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:G7"/>
+  <dimension ref="C4:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,7 +415,7 @@
     <col min="8" max="8" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>8</v>
       </c>
@@ -419,8 +431,11 @@
       <c r="G4" t="s">
         <v>9</v>
       </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>14020234</v>
       </c>
@@ -436,8 +451,11 @@
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>14020778</v>
       </c>
@@ -453,8 +471,11 @@
       <c r="G6">
         <v>2</v>
       </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>15021028</v>
       </c>
@@ -469,6 +490,9 @@
       </c>
       <c r="G7">
         <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
